--- a/Fundamentals-test-cases.xlsx
+++ b/Fundamentals-test-cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theba\My Drive\School Documents\Seneca year 1\Semester 1\CPR101\Final Project\Final Project V2 Backup\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theba\My Drive\School Documents\Seneca year 1\Semester 1\CPR101\Final Project\Github Final Project repository\CPR101NEE-Group13-Final-Project-Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA2BAF1-920B-41FE-B8F7-3AA133C472E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8E700-C63A-4EDA-B5CB-57D92A7A2834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>Comments</t>
   </si>
@@ -828,83 +828,115 @@
     <t>Description</t>
   </si>
   <si>
-    <t>????? Tester's Name ?????
+    <t>Fundamentals</t>
+  </si>
+  <si>
+    <t>+ minimal edge case</t>
+  </si>
+  <si>
+    <t>+ typical case</t>
+  </si>
+  <si>
+    <t>- maximal edge case</t>
+  </si>
+  <si>
+    <t>empty string</t>
+  </si>
+  <si>
+    <t>Test, 3</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>Too big... Position reduced to max. available</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>The character found at 0 position is 'A'</t>
+  </si>
+  <si>
+    <t>(-) pass</t>
+  </si>
+  <si>
+    <t>(+) pass</t>
+  </si>
+  <si>
+    <t>I thought it would fail as the max buffer size is 80 and a string of 81 was entered, but the program simple skips forward and returns the character in index 0</t>
+  </si>
+  <si>
+    <t>Testing to see what happens in the event of input &gt; max</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>testing if program quits when entering "q"</t>
+  </si>
+  <si>
+    <t>testing if program reacts as expected when entering "Hello"</t>
+  </si>
+  <si>
+    <t>testing if program breaks when entering an empty string</t>
+  </si>
+  <si>
+    <t>The length of '' is 0 characters</t>
+  </si>
+  <si>
+    <t>The length of 'Hello' is 5 characters</t>
+  </si>
+  <si>
+    <t>The length of 'AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA' is 78 characters</t>
+  </si>
+  <si>
+    <t>The length of 'AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA' is 101 characters</t>
+  </si>
+  <si>
+    <t>program window closes</t>
+  </si>
+  <si>
+    <t>program window closes or moves to next component of module</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>program crashed</t>
+  </si>
+  <si>
+    <t>????? Ben Vaillancourt ?????
 ????? Date ?????</t>
   </si>
   <si>
-    <t>Fundamentals</t>
-  </si>
-  <si>
-    <t>+ minimal edge case</t>
-  </si>
-  <si>
-    <t>+ typical case</t>
-  </si>
-  <si>
-    <t>- maximal edge case</t>
-  </si>
-  <si>
-    <t>empty string</t>
-  </si>
-  <si>
-    <t>Test, 3</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>Too big... Position reduced to max. available</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>The character found at 0 position is 'A'</t>
-  </si>
-  <si>
-    <t>(-) pass</t>
-  </si>
-  <si>
-    <t>(+) pass</t>
-  </si>
-  <si>
-    <t>I thought it would fail as the max buffer size is 80 and a string of 81 was entered, but the program simple skips forward and returns the character in index 0</t>
-  </si>
-  <si>
-    <t>Testing to see what happens in the event of input &gt; max</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>testing if program quits when entering "q"</t>
-  </si>
-  <si>
-    <t>testing if program reacts as expected when entering "Hello"</t>
-  </si>
-  <si>
-    <t>testing if program breaks when entering an empty string</t>
-  </si>
-  <si>
-    <t>The length of '' is 0 characters</t>
-  </si>
-  <si>
-    <t>The length of 'Hello' is 5 characters</t>
-  </si>
-  <si>
-    <t>The length of 'AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA' is 78 characters</t>
-  </si>
-  <si>
-    <t>The length of 'AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA' is 101 characters</t>
-  </si>
-  <si>
-    <t>program window closes</t>
+    <t>????? Ben Vaillancourt ?????
+????? December 01 ?????</t>
+  </si>
+  <si>
+    <t>????? Ben Vaillancourt ?????
+????? December 02 ?????</t>
+  </si>
+  <si>
+    <t>(-) Fail</t>
+  </si>
+  <si>
+    <t>I 'm unsure of why but no matter the input the program crashes</t>
+  </si>
+  <si>
+    <t>same as the first</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1381,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1650,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1670,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="30" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
@@ -1681,7 +1727,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
@@ -1693,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1721,63 +1767,63 @@
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -1806,7 +1852,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>5</v>
       </c>
@@ -1818,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1846,76 +1892,76 @@
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -1930,7 +1976,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>6</v>
       </c>
@@ -1942,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1968,29 +2014,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="15"/>
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="15"/>
+      <c r="A21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
@@ -2030,10 +2144,10 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Fundamentals-test-cases.xlsx
+++ b/Fundamentals-test-cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theba\My Drive\School Documents\Seneca year 1\Semester 1\CPR101\Final Project\Github Final Project repository\CPR101NEE-Group13-Final-Project-Fundamentals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8E700-C63A-4EDA-B5CB-57D92A7A2834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6718718B-3C28-44F7-95C2-4B6BF089416C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>Comments</t>
   </si>
@@ -909,13 +909,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
     <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>program crashed</t>
   </si>
   <si>
     <t>????? Ben Vaillancourt ?????
@@ -930,13 +924,22 @@
 ????? December 02 ?????</t>
   </si>
   <si>
-    <t>(-) Fail</t>
-  </si>
-  <si>
-    <t>I 'm unsure of why but no matter the input the program crashes</t>
-  </si>
-  <si>
-    <t>same as the first</t>
+    <t>New destination string is ''</t>
+  </si>
+  <si>
+    <t>New destination string is 'test'</t>
+  </si>
+  <si>
+    <t>New destination string is 'AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA'</t>
+  </si>
+  <si>
+    <t>New destination string is 'AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA''</t>
+  </si>
+  <si>
+    <t>(-) Pass</t>
+  </si>
+  <si>
+    <t>I thought it would reduce it to 80 A's but instead it was reduced to 78.</t>
   </si>
 </sst>
 </file>
@@ -1381,21 +1384,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB4B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1696,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1739,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1864,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1988,7 +1977,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2014,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>31</v>
       </c>
@@ -2025,16 +2014,11 @@
         <v>16</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2047,20 +2031,15 @@
       <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>26</v>
       </c>
@@ -2068,19 +2047,19 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -2096,14 +2075,9 @@
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2144,10 +2118,10 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>
